--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614328.2804713605</v>
+        <v>611889.8905129434</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6585888970722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.10770370628473</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398000709</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36.02766158664576</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>58.69387841119204</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427132</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>294.8980762824338</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.1634067967807</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>119.8620943363773</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.91534106849849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>275.0428790940282</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>198.8219896703807</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.6692588683104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>124.6324187378963</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012336</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>87.20901510506846</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.9868265178721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046966</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126623</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6511556918844</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890402</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.31547498186427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820796981</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.167618932618</v>
+        <v>1250.335715171</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>881.3731982305887</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>523.1074996238382</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>523.1074996238382</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>523.1074996238382</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.0350494688346</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.0350494688346</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2027.074887210934</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1636.935555235122</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.0144869816394</v>
+        <v>249.793641290342</v>
       </c>
       <c r="C4" t="n">
-        <v>370.0144869816394</v>
+        <v>249.793641290342</v>
       </c>
       <c r="D4" t="n">
-        <v>370.0144869816394</v>
+        <v>249.793641290342</v>
       </c>
       <c r="E4" t="n">
-        <v>370.0144869816394</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>223.124539483729</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>223.124539483729</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251695</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816394</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>742.0651425065845</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.2725633630544</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1444.947914076503</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1155.845047202147</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>901.1605589962596</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>901.1605589962596</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1605589962596</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5039,10 +5039,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5054,10 +5054,10 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.49737412729</v>
@@ -5066,25 +5066,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.658273721296</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>704.9454985441409</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>554.8288591318052</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>406.9157655494121</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515017</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608056</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
         <v>92.81162322608056</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2302.484442351687</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.805660066068</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1793.729446380795</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1793.729446380795</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1276.322725445817</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454286</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876657</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614356</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179055</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6464,49 +6464,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,22 +7491,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.0752527664083</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>236.6441421668553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0.4692260666412478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4063010599234</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.70606962056267</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.4596884482326</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>164.9286282187595</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393119</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.003342051665</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067434</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462278</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.2691783702305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459489</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.2291039219465</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950887.9324260576</v>
+        <v>950887.9324260575</v>
       </c>
     </row>
     <row r="3">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503243</v>
+        <v>375475.6212503242</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="H2" t="n">
-        <v>403573.2998450031</v>
-      </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.299845003</v>
@@ -26347,13 +26347,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189856</v>
+        <v>313680.0588189857</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504127</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52178.53358980836</v>
+        <v>52178.53358980845</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12990.33152560508</v>
@@ -26442,7 +26442,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1113381.59862847</v>
+        <v>-1113556.824946879</v>
       </c>
       <c r="C6" t="n">
-        <v>210403.0454525667</v>
+        <v>210403.0454525665</v>
       </c>
       <c r="D6" t="n">
-        <v>210403.0454525666</v>
+        <v>210403.0454525663</v>
       </c>
       <c r="E6" t="n">
-        <v>-25472.63303941372</v>
+        <v>-25518.53803497935</v>
       </c>
       <c r="F6" t="n">
-        <v>278001.6427592243</v>
+        <v>277966.9048337886</v>
       </c>
       <c r="G6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488296</v>
       </c>
       <c r="H6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="I6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488297</v>
       </c>
       <c r="J6" t="n">
-        <v>71922.70347698826</v>
+        <v>71887.96555155236</v>
       </c>
       <c r="K6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488297</v>
       </c>
       <c r="L6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488297</v>
       </c>
       <c r="M6" t="n">
-        <v>207529.6272359362</v>
+        <v>207494.8893105004</v>
       </c>
       <c r="N6" t="n">
-        <v>286376.8885185607</v>
+        <v>286342.1505931253</v>
       </c>
       <c r="O6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="P6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488299</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237143</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237143</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>128.6287496041522</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.279606698462</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>86.06113650312875</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390453</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>54.34289243497921</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.66857338515658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.3497438692355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.8185005949821</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>106.8874909782336</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.72695960578847</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.8537394682806</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29509,13 +29509,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.034586771846195e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745725</v>
@@ -31850,19 +31850,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,25 +34211,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946983</v>
@@ -35498,19 +35498,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37242,10 +37242,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066202</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
